--- a/data/trans_dic/P21B_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P21B_R-Edad-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>63,15; 80,62</t>
+          <t>61,62; 80,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>46,43; 65,07</t>
+          <t>46,56; 64,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>46,4; 68,32</t>
+          <t>46,66; 67,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>45,92; 85,4</t>
+          <t>44,74; 84,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>48,77; 66,7</t>
+          <t>48,66; 66,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>51,06; 68,77</t>
+          <t>50,37; 67,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>52,05; 72,53</t>
+          <t>53,04; 72,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>67,73; 90,26</t>
+          <t>66,6; 90,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>58,27; 70,62</t>
+          <t>57,87; 71,04</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>51,1; 64,34</t>
+          <t>50,89; 63,93</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>53,04; 67,51</t>
+          <t>51,96; 66,93</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>64,06; 86,02</t>
+          <t>64,01; 85,22</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>52,15; 70,36</t>
+          <t>51,74; 71,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>52,54; 68,4</t>
+          <t>52,02; 67,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>55,54; 75,46</t>
+          <t>55,4; 74,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>56,23; 81,43</t>
+          <t>58,67; 82,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>66,64; 80,02</t>
+          <t>67,02; 80,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>57,71; 71,66</t>
+          <t>58,02; 71,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>57,22; 72,3</t>
+          <t>56,4; 72,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>47,52; 67,53</t>
+          <t>48,43; 67,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>63,55; 74,31</t>
+          <t>63,74; 74,13</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>58,15; 68,18</t>
+          <t>57,89; 67,96</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>59,42; 71,44</t>
+          <t>58,99; 71,9</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>55,01; 70,03</t>
+          <t>54,42; 70,1</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>71,52; 89,02</t>
+          <t>72,64; 89,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>48,26; 66,56</t>
+          <t>48,62; 66,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>51,31; 70,77</t>
+          <t>50,52; 70,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>60,08; 78,13</t>
+          <t>60,92; 78,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>59,17; 75,65</t>
+          <t>59,34; 75,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>55,46; 70,27</t>
+          <t>54,61; 70,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>47,01; 63,27</t>
+          <t>47,17; 64,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>63,98; 77,3</t>
+          <t>63,94; 76,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>67,51; 79,22</t>
+          <t>67,25; 79,45</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>54,9; 66,94</t>
+          <t>54,74; 67,0</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>51,84; 64,2</t>
+          <t>52,4; 64,68</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>64,58; 75,69</t>
+          <t>64,42; 75,32</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>54,12; 76,46</t>
+          <t>52,23; 75,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>53,27; 73,2</t>
+          <t>53,72; 72,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>63,65; 83,47</t>
+          <t>63,97; 83,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>64,27; 78,52</t>
+          <t>64,51; 78,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>61,36; 78,84</t>
+          <t>60,22; 77,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>57,45; 75,45</t>
+          <t>57,12; 75,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>57,11; 75,12</t>
+          <t>56,41; 74,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>60,7; 73,02</t>
+          <t>61,6; 73,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>61,05; 74,3</t>
+          <t>60,45; 74,37</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>58,54; 72,29</t>
+          <t>58,72; 72,09</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>62,46; 75,88</t>
+          <t>62,82; 75,68</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>64,74; 73,96</t>
+          <t>64,9; 74,21</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>54,65; 78,45</t>
+          <t>55,44; 78,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>54,15; 76,62</t>
+          <t>54,93; 76,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>66,92; 87,23</t>
+          <t>67,04; 87,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>64,28; 80,76</t>
+          <t>65,55; 81,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>55,22; 75,91</t>
+          <t>54,26; 75,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>61,26; 79,57</t>
+          <t>60,19; 79,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>53,01; 75,49</t>
+          <t>55,18; 75,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>68,66; 80,16</t>
+          <t>69,03; 80,61</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>57,76; 73,62</t>
+          <t>57,94; 73,44</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>62,15; 75,3</t>
+          <t>60,85; 75,19</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>62,76; 78,05</t>
+          <t>63,0; 78,47</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>69,74; 79,26</t>
+          <t>69,79; 78,86</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>67,4; 83,11</t>
+          <t>67,94; 83,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>61,2; 78,41</t>
+          <t>62,5; 79,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>61,18; 78,57</t>
+          <t>60,92; 78,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>70,39; 82,15</t>
+          <t>69,99; 82,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>64,96; 78,33</t>
+          <t>65,04; 78,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>62,04; 74,42</t>
+          <t>61,9; 74,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>65,13; 80,34</t>
+          <t>65,34; 79,67</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>76,79; 94,26</t>
+          <t>77,06; 94,08</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>68,66; 78,07</t>
+          <t>68,7; 78,49</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>64,25; 74,2</t>
+          <t>64,1; 74,14</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>66,17; 77,32</t>
+          <t>66,03; 77,35</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>76,51; 92,04</t>
+          <t>76,82; 91,57</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>66,95; 74,77</t>
+          <t>66,91; 74,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>58,54; 66,19</t>
+          <t>58,54; 66,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>62,59; 71,02</t>
+          <t>62,95; 71,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>68,31; 75,96</t>
+          <t>68,47; 75,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>65,36; 71,86</t>
+          <t>65,79; 72,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>62,34; 68,81</t>
+          <t>62,71; 69,11</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>61,55; 68,86</t>
+          <t>61,56; 68,56</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>70,65; 81,73</t>
+          <t>70,74; 82,35</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>67,42; 72,21</t>
+          <t>67,05; 72,06</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>61,82; 66,63</t>
+          <t>62,02; 66,79</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>63,46; 68,91</t>
+          <t>63,4; 68,91</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>70,85; 79,72</t>
+          <t>71,09; 79,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P21B_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P21B_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>61,62; 80,19</t>
+          <t>62,45; 80,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>46,56; 64,95</t>
+          <t>45,01; 64,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>46,66; 67,27</t>
+          <t>46,86; 67,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>48,66; 66,88</t>
+          <t>48,99; 67,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>50,37; 67,69</t>
+          <t>50,38; 67,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>53,04; 72,27</t>
+          <t>52,93; 72,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>57,87; 71,04</t>
+          <t>57,92; 70,55</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>50,89; 63,93</t>
+          <t>51,6; 64,11</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>51,96; 66,93</t>
+          <t>52,63; 67,11</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>51,74; 71,19</t>
+          <t>52,01; 70,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>52,02; 67,41</t>
+          <t>52,08; 67,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>55,4; 74,9</t>
+          <t>56,32; 75,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>67,02; 80,25</t>
+          <t>66,34; 79,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>58,02; 71,78</t>
+          <t>58,44; 71,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>56,4; 72,34</t>
+          <t>57,42; 73,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>63,74; 74,13</t>
+          <t>63,59; 74,67</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>57,89; 67,96</t>
+          <t>57,63; 67,96</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>58,99; 71,9</t>
+          <t>59,11; 71,88</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>72,64; 89,6</t>
+          <t>71,63; 88,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>48,62; 66,52</t>
+          <t>48,86; 67,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>50,52; 70,39</t>
+          <t>51,6; 71,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>59,34; 75,8</t>
+          <t>59,86; 75,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>54,61; 70,35</t>
+          <t>56,44; 71,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>47,17; 64,29</t>
+          <t>47,02; 63,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>67,25; 79,45</t>
+          <t>67,16; 79,57</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>54,74; 67,0</t>
+          <t>55,49; 67,13</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>52,4; 64,68</t>
+          <t>51,47; 64,17</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>52,23; 75,86</t>
+          <t>52,29; 74,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>53,72; 72,31</t>
+          <t>54,02; 73,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>63,97; 83,41</t>
+          <t>63,18; 83,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>60,22; 77,87</t>
+          <t>60,23; 77,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>57,12; 75,08</t>
+          <t>58,17; 76,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>56,41; 74,39</t>
+          <t>56,11; 75,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>60,45; 74,37</t>
+          <t>60,83; 74,81</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>58,72; 72,09</t>
+          <t>58,41; 71,44</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>62,82; 75,68</t>
+          <t>61,99; 75,89</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>55,44; 78,33</t>
+          <t>53,65; 77,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>54,93; 76,14</t>
+          <t>54,27; 76,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>67,04; 87,51</t>
+          <t>64,87; 85,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>54,26; 75,53</t>
+          <t>55,17; 76,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>60,19; 79,5</t>
+          <t>60,1; 78,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>55,18; 75,48</t>
+          <t>54,04; 74,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>57,94; 73,44</t>
+          <t>57,91; 74,23</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>60,85; 75,19</t>
+          <t>61,91; 75,51</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>63,0; 78,47</t>
+          <t>62,99; 77,86</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>67,94; 83,5</t>
+          <t>68,14; 82,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>62,5; 79,34</t>
+          <t>62,26; 78,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>60,92; 78,83</t>
+          <t>61,19; 77,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>65,04; 78,21</t>
+          <t>65,85; 77,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>61,9; 74,18</t>
+          <t>62,11; 74,24</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>65,34; 79,67</t>
+          <t>65,93; 80,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>68,7; 78,49</t>
+          <t>69,28; 78,51</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>64,1; 74,14</t>
+          <t>64,35; 74,15</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>66,03; 77,35</t>
+          <t>66,49; 77,68</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>66,91; 74,49</t>
+          <t>66,42; 74,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>58,54; 66,05</t>
+          <t>58,34; 65,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>62,95; 71,3</t>
+          <t>63,05; 71,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>65,79; 72,15</t>
+          <t>65,68; 72,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>62,71; 69,11</t>
+          <t>62,71; 68,89</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>61,56; 68,56</t>
+          <t>61,68; 68,67</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>67,05; 72,06</t>
+          <t>67,17; 72,13</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>62,02; 66,79</t>
+          <t>61,93; 67,03</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>63,4; 68,91</t>
+          <t>63,24; 68,71</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
